--- a/data/others/annual_predictions_low_aon.xlsx
+++ b/data/others/annual_predictions_low_aon.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -543,7 +543,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -580,7 +580,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -691,7 +691,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -808,7 +808,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -851,7 +851,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -894,7 +894,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -935,7 +935,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -978,7 +978,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E150" t="n">
